--- a/2_metal_balance/data/2-4-2南国铜业5月份盘点数据表.xlsx
+++ b/2_metal_balance/data/2-4-2南国铜业5月份盘点数据表.xlsx
@@ -237,13 +237,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -330,6 +330,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -337,9 +353,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +378,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,7 +386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,14 +398,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -390,9 +406,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,62 +452,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,18 +472,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -499,25 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +523,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +601,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,67 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,67 +748,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,108 +780,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
@@ -946,53 +946,53 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1027,10 +1027,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,46 +1042,43 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1114,8 +1114,8 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 2 2_总表 _总表  " xfId="1"/>
-    <cellStyle name="常规 10 10 2 2 2" xfId="2"/>
+    <cellStyle name="常规 10 10 2 2 2" xfId="1"/>
+    <cellStyle name="常规 10 2 2_总表 _总表  " xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1464,8 +1464,8 @@
   <sheetPr/>
   <dimension ref="A1:IL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A38" sqref="A36:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -10182,7 +10182,7 @@
       <c r="IJ34" s="34"/>
       <c r="IK34" s="34"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:245">
+    <row r="35" s="1" customFormat="1" ht="41" customHeight="1" spans="1:245">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">

--- a/2_metal_balance/data/2-4-2南国铜业5月份盘点数据表.xlsx
+++ b/2_metal_balance/data/2-4-2南国铜业5月份盘点数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8370"/>
+    <workbookView windowWidth="27720" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="5月份" sheetId="1" r:id="rId1"/>
@@ -237,13 +237,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -331,6 +331,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -338,11 +346,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,11 +361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,19 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,6 +395,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -406,8 +412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,37 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +453,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +475,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,145 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +619,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,7 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +752,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,33 +761,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,17 +811,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,103 +841,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
@@ -946,53 +946,53 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1027,13 +1027,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,43 +1039,46 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1114,8 +1114,8 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 10 2 2 2" xfId="1"/>
-    <cellStyle name="常规 10 2 2_总表 _总表  " xfId="2"/>
+    <cellStyle name="常规 10 2 2_总表 _总表  " xfId="1"/>
+    <cellStyle name="常规 10 10 2 2 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1464,23 +1464,23 @@
   <sheetPr/>
   <dimension ref="A1:IL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A38" sqref="A36:C62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.79090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.79166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.2545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.2583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2583333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1272727272727" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.2727272727273" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.275" style="1" customWidth="1"/>
     <col min="12" max="245" width="9" style="1" customWidth="1"/>
     <col min="246" max="16384" width="9" style="1"/>
   </cols>
